--- a/medicine/Mort/Cimetière_parisien_d'Ivry/Cimetière_parisien_d'Ivry.xlsx
+++ b/medicine/Mort/Cimetière_parisien_d'Ivry/Cimetière_parisien_d'Ivry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_parisien_d%27Ivry</t>
+          <t>Cimetière_parisien_d'Ivry</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière parisien d'Ivry est un des cimetières parisiens extra muros, qui dépend de la Ville de Paris. Il est situé à moins de 500 mètres de Paris intra-muros, sur le territoire de la commune limitrophe       d'Ivry-sur-Seine, dans le département du Val-de-Marne. En tant qu'espace vert, ce cimetière est un refuge pour la faune et la flore sauvage. En outre, il affiche le label QualiPARIS[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière parisien d'Ivry est un des cimetières parisiens extra muros, qui dépend de la Ville de Paris. Il est situé à moins de 500 mètres de Paris intra-muros, sur le territoire de la commune limitrophe       d'Ivry-sur-Seine, dans le département du Val-de-Marne. En tant qu'espace vert, ce cimetière est un refuge pour la faune et la flore sauvage. En outre, il affiche le label QualiPARIS.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_parisien_d%27Ivry</t>
+          <t>Cimetière_parisien_d'Ivry</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est constitué de deux enclos distincts, séparés par la rue Paul-Andrieux.
 Le premier, au nord, remonte à 1861 et couvre une superficie de 7,69 hectares. Sa partie ouest a été achetée en 1897, pour devenir le cimetière du Kremlin-Bicêtre.
 le second, au sud, a été créé en 1874 et totalise 20,69 hectares de surface.
 La nécropole compte 48 000 concessions, réparties en 47 divisions. 240 000 personnes ont été inhumées au cimetière d'Ivry de 1861 à 2007 et environ 1 000 inhumations y ont lieu chaque année.
-L'espace vert
-Le cimetière compte près de 1 800 arbres, ce qui en fait un espace vert[2]. Il fait l'objet d'une gestion écologique.
-Depuis 2015, le désherbage se fait mécaniquement, plus aucun produit chimique n'est utilisé[2]. Les murs du cimetière ont été végétalisés[2] et certaines allées engazonnées[2]. Des nichoirs ont été installés par les services de la ville de Paris ainsi que des abris pour les hérissons[2].
-À fin 2016, l’épervier, le pivert, le renard, la chauve-souris, le hérisson ou la chouette hulotte[2] fréquentaient le cimetière. Des arbres fruitiers ont été plantés pour permettre le nourrissage des oiseaux et des abeilles[2].
 </t>
         </is>
       </c>
@@ -531,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_parisien_d%27Ivry</t>
+          <t>Cimetière_parisien_d'Ivry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,32 +556,180 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L'espace vert</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière compte près de 1 800 arbres, ce qui en fait un espace vert. Il fait l'objet d'une gestion écologique.
+Depuis 2015, le désherbage se fait mécaniquement, plus aucun produit chimique n'est utilisé. Les murs du cimetière ont été végétalisés et certaines allées engazonnées. Des nichoirs ont été installés par les services de la ville de Paris ainsi que des abris pour les hérissons.
+À fin 2016, l’épervier, le pivert, le renard, la chauve-souris, le hérisson ou la chouette hulotte fréquentaient le cimetière. Des arbres fruitiers ont été plantés pour permettre le nourrissage des oiseaux et des abeilles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_parisien_d'Ivry</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_parisien_d%27Ivry</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les exécutés de la Commune
-Le cimetière a accueilli en mai 1871 un nombre considérable d'exécutés sommaires, communards victimes de la répression versaillaise. Les estimations sont très variables : 650 selon Maxime Du Camp (farouche anticommunard), 5 000 selon Camille Pelletan, 15 000 selon Xavier Raspail. Cette dernière estimation en ferait, de loin, le cimetière qui aurait eu dans ses fosses communes le plus grand nombre de communards exécutés. Des fouilles permettraient peut-être d'avancer un nombre plus rigoureusement établi.
-Résistants communistes
-Après guerre, le Parti communiste français (PCF) fait l'acquisition d'une concession importante, appelée le « carré des fusillés » (situé dans la 39e division), qui est l'équivalent d'un Panthéon pour le parti[3]. On y trouve :
-les tombes de nombreux résistants fusillés dans la clairière du fort du Mont Valérien : Missak Manouchian (1906-1944)[4] — Panthéonisé en février 2024[5] —, Marcel Rajman (1923-1944), Fernand Zalkinow (1923-1942) et plusieurs membres de l'Affiche rouge, un groupe de résistants constitué d'immigrés récents ;
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les exécutés de la Commune</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière a accueilli en mai 1871 un nombre considérable d'exécutés sommaires, communards victimes de la répression versaillaise. Les estimations sont très variables : 650 selon Maxime Du Camp (farouche anticommunard), 5 000 selon Camille Pelletan, 15 000 selon Xavier Raspail. Cette dernière estimation en ferait, de loin, le cimetière qui aurait eu dans ses fosses communes le plus grand nombre de communards exécutés. Des fouilles permettraient peut-être d'avancer un nombre plus rigoureusement établi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_parisien_d'Ivry</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_parisien_d%27Ivry</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Résistants communistes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Après guerre, le Parti communiste français (PCF) fait l'acquisition d'une concession importante, appelée le « carré des fusillés » (situé dans la 39e division), qui est l'équivalent d'un Panthéon pour le parti. On y trouve :
+les tombes de nombreux résistants fusillés dans la clairière du fort du Mont Valérien : Missak Manouchian (1906-1944) — Panthéonisé en février 2024 —, Marcel Rajman (1923-1944), Fernand Zalkinow (1923-1942) et plusieurs membres de l'Affiche rouge, un groupe de résistants constitué d'immigrés récents ;
 la tombe de l'ethnologue et linguiste Boris Vildé (1908-1942) résistant, membre fondateur du groupe du musée de l'Homme ;
-les tombes de Jean Poulmarc'h (né en 1910) et d'Henri Pourchasse[6] (employé de préfecture, responsable de la Fédération CGT des cheminots, né en 1907[7]), militants communistes fusillés à Châteaubriant (Loire-Inférieure) le 22 octobre 1941 avec 26 autres otages ;
+les tombes de Jean Poulmarc'h (né en 1910) et d'Henri Pourchasse (employé de préfecture, responsable de la Fédération CGT des cheminots, né en 1907), militants communistes fusillés à Châteaubriant (Loire-Inférieure) le 22 octobre 1941 avec 26 autres otages ;
 une plaque à la mémoire d'Olga Bancic (1912-1944), symbole des femmes étrangères engagées volontaires dans la Résistance, apposée sur un des murs ;
 une plaque à la mémoire de Pierre Rebière (1909-1942), apposée sur un des murs du carré militaire ;
-les tombes d'Artur London (1915-1986), ancien des Brigades internationales en Espagne, résistant communiste en France dès 1940 et auteur du livre L'Aveu, et de Lise London (1916-2012), son épouse, militante et résistante communiste.
-Condamnés à mort non politiques
-De 1885 à 1972, les condamnés à mort guillotinés à la prison de la Santé ont été inhumés au cimetière d'Ivry, dans la division 27[8]. Parmi les 128[8] exécutés, on peut citer : 
-Jean-Jacques Liabeuf[9] (1886-1910), cordonnier qui avait tué un policier
+les tombes d'Artur London (1915-1986), ancien des Brigades internationales en Espagne, résistant communiste en France dès 1940 et auteur du livre L'Aveu, et de Lise London (1916-2012), son épouse, militante et résistante communiste.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_parisien_d'Ivry</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_parisien_d%27Ivry</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Condamnés à mort non politiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1885 à 1972, les condamnés à mort guillotinés à la prison de la Santé ont été inhumés au cimetière d'Ivry, dans la division 27. Parmi les 128 exécutés, on peut citer : 
+Jean-Jacques Liabeuf (1886-1910), cordonnier qui avait tué un policier
 Paul Gorgulov (1895-1932), assassin du président Doumer
 Marie-Louise Giraud (1903-1943), « faiseuse d'anges »
 Le docteur Petiot (1897-1946), tueur en série
 Émile Buisson (1902-1956),  malfaiteur,
 Claude Buffet (1936-1972) et Roger Bontems (1933-1972)
-Ils étaient enterrés dans des tombes anonymes. À la fin des années 1990, les dépouilles ont été relevées sur ordre de l'administration[9]. Elles furent alors soit déposées dans un ossuaire soit récupérées par les familles et inhumées ailleurs[8]. Il ne reste aujourd'hui plus que la délimitation par des pavés du « carré des suppliciés »[8].
-Personnalités diverses
-Arlette Accart (1926-1957), actrice et speakerine
+Ils étaient enterrés dans des tombes anonymes. À la fin des années 1990, les dépouilles ont été relevées sur ordre de l'administration. Elles furent alors soit déposées dans un ossuaire soit récupérées par les familles et inhumées ailleurs. Il ne reste aujourd'hui plus que la délimitation par des pavés du « carré des suppliciés ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_parisien_d'Ivry</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_parisien_d%27Ivry</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Personnalités diverses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Arlette Accart (1926-1957), actrice et speakerine
 Arthur Adamov (1908-1970), écrivain et auteur dramatique (44e division)
 Jean Bellus (1911-1967),  illustrateur et dessinateur de presse (24e division)
 Abdel Hafed Benotman (1960-2015), écrivain algérien (16e division)
